--- a/blog/british_columbia_overdoses/data_british_columbia_overdoses.xlsx
+++ b/blog/british_columbia_overdoses/data_british_columbia_overdoses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Annual" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -681,10 +681,10 @@
         <v>2016</v>
       </c>
       <c r="B23">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C23">
-        <v>20.399999999999999</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -692,7 +692,7 @@
         <v>2017</v>
       </c>
       <c r="B24">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C24">
         <v>30.3</v>
@@ -703,10 +703,10 @@
         <v>2018</v>
       </c>
       <c r="B25">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="C25">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -714,10 +714,10 @@
         <v>2019</v>
       </c>
       <c r="B26">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="C26">
-        <v>19.3</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -725,10 +725,10 @@
         <v>2020</v>
       </c>
       <c r="B27">
-        <v>1765</v>
+        <v>1774</v>
       </c>
       <c r="C27">
-        <v>34.299999999999997</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -736,10 +736,21 @@
         <v>2021</v>
       </c>
       <c r="B28">
-        <v>2224</v>
+        <v>2306</v>
       </c>
       <c r="C28">
-        <v>42.8</v>
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2022</v>
+      </c>
+      <c r="B29">
+        <v>2272</v>
+      </c>
+      <c r="C29">
+        <v>42.7</v>
       </c>
     </row>
   </sheetData>
@@ -749,15 +760,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -794,8 +805,11 @@
       <c r="L1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -818,7 +832,7 @@
         <v>85</v>
       </c>
       <c r="H2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I2">
         <v>134</v>
@@ -830,10 +844,13 @@
         <v>80</v>
       </c>
       <c r="L2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>190</v>
+      </c>
+      <c r="M2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -862,16 +879,19 @@
         <v>108</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>174</v>
+      </c>
+      <c r="M3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -897,7 +917,7 @@
         <v>130</v>
       </c>
       <c r="I4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J4">
         <v>119</v>
@@ -906,10 +926,13 @@
         <v>119</v>
       </c>
       <c r="L4">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>175</v>
+      </c>
+      <c r="M4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -929,25 +952,28 @@
         <v>34</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I5">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L5">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>186</v>
+      </c>
+      <c r="M5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -976,16 +1002,19 @@
         <v>118</v>
       </c>
       <c r="J6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K6">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L6">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>174</v>
+      </c>
+      <c r="M6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1014,16 +1043,19 @@
         <v>116</v>
       </c>
       <c r="J7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K7">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L7">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>179</v>
+      </c>
+      <c r="M7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1049,19 +1081,22 @@
         <v>122</v>
       </c>
       <c r="I8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8">
         <v>185</v>
       </c>
       <c r="L8">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>200</v>
+      </c>
+      <c r="M8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1087,19 +1122,22 @@
         <v>127</v>
       </c>
       <c r="I9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J9">
         <v>84</v>
       </c>
       <c r="K9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L9">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>199</v>
+      </c>
+      <c r="M9">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1125,19 +1163,22 @@
         <v>97</v>
       </c>
       <c r="I10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L10">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>164</v>
+      </c>
+      <c r="M10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1172,10 +1213,13 @@
         <v>176</v>
       </c>
       <c r="L11">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>216</v>
+      </c>
+      <c r="M11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1207,13 +1251,16 @@
         <v>81</v>
       </c>
       <c r="K12">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L12">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>217</v>
+      </c>
+      <c r="M12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1245,10 +1292,13 @@
         <v>62</v>
       </c>
       <c r="K13">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L13">
-        <v>215</v>
+        <v>232</v>
+      </c>
+      <c r="M13">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1258,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1340,7 +1390,7 @@
         <v>200</v>
       </c>
       <c r="C7">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1348,7 +1398,7 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C8">
         <v>1223</v>
@@ -1362,7 +1412,7 @@
         <v>316</v>
       </c>
       <c r="C9">
-        <v>1242</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1373,7 +1423,7 @@
         <v>237</v>
       </c>
       <c r="C10">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1384,7 +1434,7 @@
         <v>334</v>
       </c>
       <c r="C11">
-        <v>1431</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1392,10 +1442,21 @@
         <v>2021</v>
       </c>
       <c r="B12">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="C12">
-        <v>1740</v>
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13">
+        <v>487</v>
+      </c>
+      <c r="C13">
+        <v>1784</v>
       </c>
     </row>
   </sheetData>
@@ -1405,15 +1466,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1450,8 +1511,11 @@
       <c r="L1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1474,7 +1538,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>18</v>
@@ -1486,10 +1550,13 @@
         <v>18</v>
       </c>
       <c r="L2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="M2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1512,22 +1579,25 @@
         <v>204</v>
       </c>
       <c r="H3">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I3">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J3">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K3">
         <v>309</v>
       </c>
       <c r="L3">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>330</v>
+      </c>
+      <c r="M3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1550,22 +1620,25 @@
         <v>261</v>
       </c>
       <c r="H4">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I4">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J4">
         <v>274</v>
       </c>
       <c r="K4">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L4">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>547</v>
+      </c>
+      <c r="M4">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1585,25 +1658,28 @@
         <v>130</v>
       </c>
       <c r="G5">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H5">
         <v>355</v>
       </c>
       <c r="I5">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J5">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K5">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L5">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>503</v>
+      </c>
+      <c r="M5">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1626,22 +1702,25 @@
         <v>230</v>
       </c>
       <c r="H6">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I6">
         <v>363</v>
       </c>
       <c r="J6">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K6">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L6">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>588</v>
+      </c>
+      <c r="M6">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1667,19 +1746,22 @@
         <v>121</v>
       </c>
       <c r="I7">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L7">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>274</v>
+      </c>
+      <c r="M7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1711,10 +1793,13 @@
         <v>4</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
